--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -24,13 +24,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,12 +52,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,14 +432,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +463,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +494,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +525,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +556,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +587,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +618,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +649,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -443,12 +443,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -1,39 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Default green" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,252 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -1,3 +1,25 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Default green" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -390,4 +412,148 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -420,14 +420,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +531,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +642,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +753,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +864,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +975,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +1086,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +1197,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota Yaris</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mazda MX-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Honda JAZZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Land Rover Defender</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEAT Leon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KIA Sorento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honda e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -446,7 +446,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,7 +458,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,7 +470,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -470,7 +482,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,7 +494,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,7 +506,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -494,7 +518,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -502,7 +530,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -510,7 +542,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -518,7 +554,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -557,7 +597,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,7 +609,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -573,7 +621,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,7 +633,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,7 +645,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -597,7 +657,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -605,7 +669,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -613,7 +681,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -621,7 +693,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -629,7 +705,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -668,7 +748,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -676,7 +760,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -684,7 +772,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -692,7 +784,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -700,7 +796,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -708,7 +808,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -716,7 +820,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -724,7 +832,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -732,7 +844,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -740,7 +856,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -779,7 +899,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -787,7 +911,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -795,7 +923,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -803,7 +935,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -811,7 +947,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -819,7 +959,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -827,7 +971,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -835,7 +983,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -843,7 +995,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -851,7 +1007,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -890,7 +1050,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -898,7 +1062,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -906,7 +1074,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -914,7 +1086,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -922,7 +1098,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -930,7 +1110,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -938,7 +1122,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -946,7 +1134,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -954,7 +1146,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -962,7 +1158,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1001,7 +1201,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1009,7 +1213,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1017,7 +1225,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1025,7 +1237,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1033,7 +1249,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1041,7 +1261,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1049,7 +1273,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1057,7 +1285,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1065,7 +1297,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1073,7 +1309,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1112,7 +1352,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1120,7 +1364,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1128,7 +1376,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1136,7 +1388,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1144,7 +1400,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1152,7 +1412,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1160,7 +1424,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1168,7 +1436,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1176,7 +1448,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1184,7 +1460,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1223,7 +1503,11 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1231,7 +1515,11 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1239,7 +1527,11 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1247,7 +1539,11 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1255,7 +1551,11 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1263,7 +1563,11 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1271,7 +1575,11 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1279,7 +1587,11 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1287,7 +1599,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1295,7 +1611,11 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -446,10 +446,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +456,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +466,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +476,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +486,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +496,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -518,10 +506,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +516,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +526,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +536,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -597,10 +577,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -609,10 +587,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -621,10 +597,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -633,10 +607,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +617,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +627,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -669,10 +637,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -681,10 +647,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -693,10 +657,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -705,10 +667,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +708,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B2" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="3">
@@ -760,10 +718,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B3" t="n">
+        <v>45.75</v>
       </c>
     </row>
     <row r="4">
@@ -772,10 +728,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -784,10 +738,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B5" t="n">
+        <v>20.25</v>
       </c>
     </row>
     <row r="6">
@@ -796,10 +748,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B6" t="n">
+        <v>30.75</v>
       </c>
     </row>
     <row r="7">
@@ -808,10 +758,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B7" t="n">
+        <v>49.5</v>
       </c>
     </row>
     <row r="8">
@@ -820,10 +768,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B8" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="9">
@@ -832,10 +778,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B9" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="10">
@@ -844,10 +788,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B10" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -856,10 +798,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B11" t="n">
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +839,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="3">
@@ -911,10 +849,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B3" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -923,10 +859,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B4" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
@@ -935,10 +869,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B5" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="6">
@@ -947,10 +879,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -959,10 +889,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -971,10 +899,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="9">
@@ -983,10 +909,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -995,10 +919,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B10" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
@@ -1007,10 +929,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B11" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +970,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1062,10 +980,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1074,10 +990,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
@@ -1086,10 +1000,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -1098,10 +1010,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B6" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="7">
@@ -1110,10 +1020,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -1122,10 +1030,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -1134,10 +1040,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B9" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
@@ -1146,10 +1050,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B10" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -1158,10 +1060,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B11" t="n">
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1101,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1213,10 +1111,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1225,10 +1121,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1131,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1249,10 +1141,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1261,10 +1151,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1273,10 +1161,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1285,10 +1171,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1181,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1309,10 +1191,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1232,8 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1364,10 +1242,8 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1376,10 +1252,8 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1388,10 +1262,8 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1400,10 +1272,8 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1412,10 +1282,8 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1424,10 +1292,8 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1436,10 +1302,8 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1448,10 +1312,8 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1460,10 +1322,8 @@
           <t>Audi A3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1503,11 +1363,6 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1515,11 +1370,6 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1527,11 +1377,6 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1539,11 +1384,6 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1551,11 +1391,6 @@
           <t>SEAT Leon</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1563,11 +1398,6 @@
           <t>KIA Sorento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1575,11 +1405,6 @@
           <t>Honda e</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1587,11 +1412,6 @@
           <t>Hyundai i10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1599,21 +1419,11 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>Audi A3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Blue</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2020 Datasheets & Spreadsheets_combined.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>11.68831168831169</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>17.30769230769231</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>15.13157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>20.98765432098765</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1.807228915662651</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>34.41558441558442</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>46.98795180722892</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>49.68152866242038</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>29.51807228915663</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>22.52747252747253</v>
       </c>
     </row>
     <row r="8">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>36.84210526315789</v>
       </c>
     </row>
     <row r="9">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>8.024691358024691</v>
       </c>
     </row>
     <row r="10">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>14.19753086419753</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>22.28915662650602</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.5</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.75</v>
+        <v>36.74698795180723</v>
       </c>
     </row>
     <row r="4">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>25.64102564102564</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.25</v>
+        <v>17.19745222929936</v>
       </c>
     </row>
     <row r="6">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.75</v>
+        <v>24.69879518072289</v>
       </c>
     </row>
     <row r="7">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.5</v>
+        <v>36.26373626373626</v>
       </c>
     </row>
     <row r="8">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.5</v>
+        <v>19.73684210526316</v>
       </c>
     </row>
     <row r="9">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.75</v>
+        <v>20.37037037037037</v>
       </c>
     </row>
     <row r="10">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>51.85185185185185</v>
       </c>
     </row>
     <row r="11">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.5</v>
+        <v>25.30120481927711</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>9.740259740259742</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>5.421686746987952</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.5</v>
+        <v>12.17948717948718</v>
       </c>
     </row>
     <row r="5">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.5</v>
+        <v>22.29299363057325</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>19.27710843373494</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>16.48351648351648</v>
       </c>
     </row>
     <row r="8">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.5</v>
+        <v>9.868421052631579</v>
       </c>
     </row>
     <row r="9">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.5</v>
+        <v>22.8395061728395</v>
       </c>
     </row>
     <row r="11">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>21.68674698795181</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2.597402597402598</v>
       </c>
     </row>
     <row r="3">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7.228915662650602</v>
       </c>
     </row>
     <row r="4">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.25</v>
+        <v>5.76923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.5</v>
+        <v>6.369426751592357</v>
       </c>
     </row>
     <row r="6">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.75</v>
+        <v>9.036144578313253</v>
       </c>
     </row>
     <row r="7">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>9.890109890109891</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>3.947368421052631</v>
       </c>
     </row>
     <row r="9">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>8.641975308641975</v>
       </c>
     </row>
     <row r="10">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.5</v>
+        <v>8.641975308641975</v>
       </c>
     </row>
     <row r="11">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.25</v>
+        <v>12.65060240963855</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7.792207792207792</v>
       </c>
     </row>
     <row r="3">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.614457831325301</v>
       </c>
     </row>
     <row r="4">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.458598726114649</v>
       </c>
     </row>
     <row r="6">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>13.85542168674699</v>
       </c>
     </row>
     <row r="7">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12.63736263736264</v>
       </c>
     </row>
     <row r="8">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9.210526315789473</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12.34567901234568</v>
       </c>
     </row>
     <row r="10">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.469135802469136</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>12.65060240963855</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.493506493506493</v>
       </c>
     </row>
     <row r="3">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="5">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.614457831325301</v>
       </c>
     </row>
     <row r="7">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.197802197802198</v>
       </c>
     </row>
     <row r="8">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7.407407407407407</v>
       </c>
     </row>
     <row r="10">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.614457831325301</v>
       </c>
     </row>
   </sheetData>
@@ -1363,6 +1363,9 @@
           <t>Toyota Yaris</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1370,6 +1373,9 @@
           <t>Mazda MX-30</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1377,6 +1383,9 @@
           <t>Honda JAZZ</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1384,6 +1393,9 @@
           <t>Land Rover Defender</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1391,6 +1403,9 @@
           <t>SEAT Leon</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1398,6 +1413,9 @@
           <t>KIA Sorento</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1405,6 +1423,9 @@
           <t>Honda e</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1412,6 +1433,9 @@
           <t>Hyundai i10</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1419,12 +1443,18 @@
           <t>ISUZU D-Max Crew Cab</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>Audi A3</t>
         </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
